--- a/OnlineShop/Documents/210_Gantt-Diagramm_Joshua_simon.110.xlsx
+++ b/OnlineShop/Documents/210_Gantt-Diagramm_Joshua_simon.110.xlsx
@@ -13,7 +13,6 @@
     <definedName name="a1ä">Balkenplan!$Q$19</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -364,7 +363,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -449,6 +448,52 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -458,58 +503,13 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60 % - Akzent1" xfId="2" builtinId="32"/>
@@ -825,7 +825,7 @@
   <dimension ref="A1:CG40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+      <selection activeCell="BB38" sqref="BB38:BD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,7 +870,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24"/>
@@ -881,109 +881,109 @@
       <c r="E1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="56">
+      <c r="F1" s="72">
         <v>43136</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="56">
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="72">
         <v>43137</v>
       </c>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="56">
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="72">
         <v>43138</v>
       </c>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="56">
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="72">
         <v>43150</v>
       </c>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="56">
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="72">
         <v>43151</v>
       </c>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="56">
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="74"/>
+      <c r="AT1" s="72">
         <v>43152</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="58"/>
-      <c r="BB1" s="56">
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="73"/>
+      <c r="AW1" s="73"/>
+      <c r="AX1" s="73"/>
+      <c r="AY1" s="73"/>
+      <c r="AZ1" s="73"/>
+      <c r="BA1" s="74"/>
+      <c r="BB1" s="72">
         <v>43153</v>
       </c>
-      <c r="BC1" s="57"/>
-      <c r="BD1" s="57"/>
-      <c r="BE1" s="57"/>
-      <c r="BF1" s="57"/>
-      <c r="BG1" s="57"/>
-      <c r="BH1" s="57"/>
-      <c r="BI1" s="58"/>
-      <c r="BJ1" s="56">
+      <c r="BC1" s="73"/>
+      <c r="BD1" s="73"/>
+      <c r="BE1" s="73"/>
+      <c r="BF1" s="73"/>
+      <c r="BG1" s="73"/>
+      <c r="BH1" s="73"/>
+      <c r="BI1" s="74"/>
+      <c r="BJ1" s="72">
         <v>43154</v>
       </c>
-      <c r="BK1" s="57"/>
-      <c r="BL1" s="57"/>
-      <c r="BM1" s="57"/>
-      <c r="BN1" s="57"/>
-      <c r="BO1" s="57"/>
-      <c r="BP1" s="57"/>
-      <c r="BQ1" s="58"/>
-      <c r="BR1" s="56" t="s">
+      <c r="BK1" s="73"/>
+      <c r="BL1" s="73"/>
+      <c r="BM1" s="73"/>
+      <c r="BN1" s="73"/>
+      <c r="BO1" s="73"/>
+      <c r="BP1" s="73"/>
+      <c r="BQ1" s="74"/>
+      <c r="BR1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="BS1" s="57"/>
-      <c r="BT1" s="57"/>
-      <c r="BU1" s="57"/>
-      <c r="BV1" s="57"/>
-      <c r="BW1" s="57"/>
-      <c r="BX1" s="57"/>
-      <c r="BY1" s="58"/>
-      <c r="BZ1" s="56" t="s">
+      <c r="BS1" s="73"/>
+      <c r="BT1" s="73"/>
+      <c r="BU1" s="73"/>
+      <c r="BV1" s="73"/>
+      <c r="BW1" s="73"/>
+      <c r="BX1" s="73"/>
+      <c r="BY1" s="74"/>
+      <c r="BZ1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="CA1" s="57"/>
-      <c r="CB1" s="57"/>
-      <c r="CC1" s="57"/>
-      <c r="CD1" s="57"/>
-      <c r="CE1" s="57"/>
-      <c r="CF1" s="57"/>
-      <c r="CG1" s="58"/>
+      <c r="CA1" s="73"/>
+      <c r="CB1" s="73"/>
+      <c r="CC1" s="73"/>
+      <c r="CD1" s="73"/>
+      <c r="CE1" s="73"/>
+      <c r="CF1" s="73"/>
+      <c r="CG1" s="74"/>
     </row>
     <row r="2" spans="1:85" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
+      <c r="A2" s="65"/>
       <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
@@ -1236,21 +1236,21 @@
       </c>
     </row>
     <row r="3" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59">
+      <c r="A3" s="66">
         <v>1</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="65"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
       <c r="M3" s="11"/>
       <c r="N3" s="9"/>
       <c r="U3" s="11"/>
@@ -1272,10 +1272,10 @@
       <c r="CG3" s="11"/>
     </row>
     <row r="4" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="50" t="s">
         <v>25</v>
       </c>
@@ -1293,10 +1293,10 @@
       <c r="CG4" s="13"/>
     </row>
     <row r="5" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="51" t="s">
         <v>27</v>
       </c>
@@ -1315,10 +1315,10 @@
       <c r="CG5" s="13"/>
     </row>
     <row r="6" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="50" t="s">
         <v>28</v>
       </c>
@@ -1404,16 +1404,16 @@
       <c r="CG6" s="13"/>
     </row>
     <row r="7" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59">
+      <c r="A7" s="66">
         <v>2</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="60"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="52" t="s">
         <v>24</v>
       </c>
@@ -1445,10 +1445,10 @@
       <c r="CG7" s="17"/>
     </row>
     <row r="8" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="61"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="53" t="s">
         <v>25</v>
       </c>
@@ -1481,10 +1481,10 @@
       <c r="CG8" s="20"/>
     </row>
     <row r="9" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="61"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="48" t="s">
         <v>27</v>
       </c>
@@ -1516,10 +1516,10 @@
       <c r="CG9" s="20"/>
     </row>
     <row r="10" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="53" t="s">
         <v>28</v>
       </c>
@@ -1605,16 +1605,16 @@
       <c r="CG10" s="20"/>
     </row>
     <row r="11" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59">
+      <c r="A11" s="66">
         <v>3</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="65"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="49" t="s">
         <v>24</v>
       </c>
@@ -1643,10 +1643,10 @@
       <c r="CG11" s="11"/>
     </row>
     <row r="12" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="50" t="s">
         <v>25</v>
       </c>
@@ -1654,7 +1654,7 @@
       <c r="R12" s="23"/>
       <c r="S12" s="23"/>
       <c r="T12" s="23"/>
-      <c r="U12" s="76"/>
+      <c r="U12" s="56"/>
       <c r="V12" s="23"/>
       <c r="W12" s="23"/>
       <c r="X12" s="23"/>
@@ -1672,10 +1672,10 @@
       <c r="CG12" s="13"/>
     </row>
     <row r="13" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="51" t="s">
         <v>27</v>
       </c>
@@ -1694,10 +1694,10 @@
       <c r="CG13" s="13"/>
     </row>
     <row r="14" spans="1:85" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
       <c r="E14" s="50" t="s">
         <v>28</v>
       </c>
@@ -1783,16 +1783,16 @@
       <c r="CG14" s="13"/>
     </row>
     <row r="15" spans="1:85" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59">
+      <c r="A15" s="66">
         <v>4</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="60"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="52" t="s">
         <v>24</v>
       </c>
@@ -1824,10 +1824,10 @@
       <c r="CG15" s="17"/>
     </row>
     <row r="16" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="61"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="53" t="s">
         <v>25</v>
       </c>
@@ -1853,10 +1853,10 @@
       <c r="CG16" s="20"/>
     </row>
     <row r="17" spans="1:85" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="61"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="48" t="s">
         <v>27</v>
       </c>
@@ -1888,10 +1888,10 @@
       <c r="CG17" s="20"/>
     </row>
     <row r="18" spans="1:85" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="53" t="s">
         <v>28</v>
       </c>
@@ -1918,7 +1918,7 @@
       <c r="Z18" s="23"/>
       <c r="AA18" s="23"/>
       <c r="AB18" s="23"/>
-      <c r="AC18" s="76"/>
+      <c r="AC18" s="56"/>
       <c r="AD18" s="18"/>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
@@ -1977,16 +1977,16 @@
       <c r="CG18" s="20"/>
     </row>
     <row r="19" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59">
+      <c r="A19" s="66">
         <v>5</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="65"/>
+      <c r="D19" s="67"/>
       <c r="E19" s="49" t="s">
         <v>24</v>
       </c>
@@ -2020,16 +2020,16 @@
       <c r="CG19" s="11"/>
     </row>
     <row r="20" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
       <c r="E20" s="50" t="s">
         <v>25</v>
       </c>
       <c r="M20" s="13"/>
       <c r="U20" s="13"/>
-      <c r="AC20" s="76"/>
+      <c r="AC20" s="56"/>
       <c r="AD20" s="23"/>
       <c r="AE20" s="23"/>
       <c r="AF20" s="23"/>
@@ -2037,7 +2037,7 @@
       <c r="AH20" s="23"/>
       <c r="AI20" s="23"/>
       <c r="AJ20" s="23"/>
-      <c r="AK20" s="76"/>
+      <c r="AK20" s="56"/>
       <c r="AL20" s="23"/>
       <c r="AM20" s="23"/>
       <c r="AS20" s="13"/>
@@ -2048,10 +2048,10 @@
       <c r="CG20" s="13"/>
     </row>
     <row r="21" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="51" t="s">
         <v>27</v>
       </c>
@@ -2077,10 +2077,10 @@
       <c r="CG21" s="13"/>
     </row>
     <row r="22" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="50" t="s">
         <v>28</v>
       </c>
@@ -2115,7 +2115,7 @@
       <c r="AH22" s="23"/>
       <c r="AI22" s="23"/>
       <c r="AJ22" s="23"/>
-      <c r="AK22" s="76"/>
+      <c r="AK22" s="56"/>
       <c r="AL22" s="23"/>
       <c r="AM22" s="23"/>
       <c r="AN22" s="23"/>
@@ -2166,16 +2166,16 @@
       <c r="CG22" s="13"/>
     </row>
     <row r="23" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="59">
+      <c r="A23" s="66">
         <v>6</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="60"/>
+      <c r="D23" s="62"/>
       <c r="E23" s="52" t="s">
         <v>24</v>
       </c>
@@ -2204,10 +2204,10 @@
       <c r="CG23" s="17"/>
     </row>
     <row r="24" spans="1:85" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="61"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="53" t="s">
         <v>26</v>
       </c>
@@ -2220,8 +2220,17 @@
       <c r="AD24" s="18"/>
       <c r="AK24" s="20"/>
       <c r="AL24" s="18"/>
-      <c r="AS24" s="20"/>
-      <c r="AT24" s="18"/>
+      <c r="AN24" s="23"/>
+      <c r="AO24" s="23"/>
+      <c r="AP24" s="23"/>
+      <c r="AQ24" s="23"/>
+      <c r="AR24" s="23"/>
+      <c r="AS24" s="56"/>
+      <c r="AT24" s="77"/>
+      <c r="AU24" s="23"/>
+      <c r="AV24" s="23"/>
+      <c r="AW24" s="23"/>
+      <c r="AX24" s="23"/>
       <c r="BA24" s="20"/>
       <c r="BB24" s="18"/>
       <c r="BI24" s="20"/>
@@ -2233,10 +2242,10 @@
       <c r="CG24" s="20"/>
     </row>
     <row r="25" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="61"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="48" t="s">
         <v>27</v>
       </c>
@@ -2265,10 +2274,10 @@
       <c r="CG25" s="20"/>
     </row>
     <row r="26" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="53" t="s">
         <v>28</v>
       </c>
@@ -2307,19 +2316,19 @@
       <c r="AL26" s="18"/>
       <c r="AM26" s="19"/>
       <c r="AN26" s="19"/>
-      <c r="AO26" s="19"/>
-      <c r="AP26" s="19"/>
-      <c r="AQ26" s="19"/>
-      <c r="AR26" s="19"/>
-      <c r="AS26" s="20"/>
-      <c r="AT26" s="18"/>
-      <c r="AU26" s="19"/>
-      <c r="AV26" s="19"/>
-      <c r="AW26" s="19"/>
-      <c r="AX26" s="19"/>
-      <c r="AY26" s="19"/>
-      <c r="AZ26" s="19"/>
-      <c r="BA26" s="20"/>
+      <c r="AO26" s="23"/>
+      <c r="AP26" s="23"/>
+      <c r="AQ26" s="23"/>
+      <c r="AR26" s="23"/>
+      <c r="AS26" s="56"/>
+      <c r="AT26" s="23"/>
+      <c r="AU26" s="23"/>
+      <c r="AV26" s="23"/>
+      <c r="AW26" s="23"/>
+      <c r="AX26" s="56"/>
+      <c r="AY26" s="23"/>
+      <c r="AZ26" s="23"/>
+      <c r="BA26" s="23"/>
       <c r="BB26" s="18"/>
       <c r="BC26" s="19"/>
       <c r="BD26" s="19"/>
@@ -2354,16 +2363,16 @@
       <c r="CG26" s="20"/>
     </row>
     <row r="27" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="59">
+      <c r="A27" s="66">
         <v>7</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="65"/>
+      <c r="D27" s="67"/>
       <c r="E27" s="49" t="s">
         <v>24</v>
       </c>
@@ -2392,10 +2401,10 @@
       <c r="CG27" s="11"/>
     </row>
     <row r="28" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
       <c r="E28" s="50" t="s">
         <v>25</v>
       </c>
@@ -2411,10 +2420,10 @@
       <c r="CG28" s="13"/>
     </row>
     <row r="29" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
       <c r="E29" s="51" t="s">
         <v>27</v>
       </c>
@@ -2434,10 +2443,10 @@
       <c r="CG29" s="13"/>
     </row>
     <row r="30" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="50" t="s">
         <v>28</v>
       </c>
@@ -2523,16 +2532,16 @@
       <c r="CG30" s="13"/>
     </row>
     <row r="31" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="59">
+      <c r="A31" s="66">
         <v>8</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="60"/>
+      <c r="D31" s="62"/>
       <c r="E31" s="52" t="s">
         <v>24</v>
       </c>
@@ -2569,10 +2578,10 @@
       <c r="CG31" s="17"/>
     </row>
     <row r="32" spans="1:85" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="61"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="63"/>
       <c r="E32" s="53" t="s">
         <v>26</v>
       </c>
@@ -2598,10 +2607,10 @@
       <c r="CG32" s="20"/>
     </row>
     <row r="33" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="61"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="63"/>
       <c r="E33" s="48" t="s">
         <v>27</v>
       </c>
@@ -2638,10 +2647,10 @@
       <c r="CG33" s="20"/>
     </row>
     <row r="34" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="53" t="s">
         <v>28</v>
       </c>
@@ -2727,16 +2736,16 @@
       <c r="CG34" s="20"/>
     </row>
     <row r="35" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59">
+      <c r="A35" s="66">
         <v>9</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="65"/>
+      <c r="D35" s="67"/>
       <c r="E35" s="49" t="s">
         <v>24</v>
       </c>
@@ -2763,10 +2772,10 @@
       <c r="CG35" s="11"/>
     </row>
     <row r="36" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
       <c r="E36" s="50" t="s">
         <v>25</v>
       </c>
@@ -2775,17 +2784,22 @@
       <c r="AC36" s="13"/>
       <c r="AK36" s="13"/>
       <c r="AS36" s="13"/>
-      <c r="BA36" s="13"/>
+      <c r="AY36" s="23"/>
+      <c r="AZ36" s="23"/>
+      <c r="BA36" s="56"/>
+      <c r="BB36" s="23"/>
+      <c r="BC36" s="23"/>
+      <c r="BD36" s="23"/>
       <c r="BI36" s="13"/>
       <c r="BQ36" s="13"/>
       <c r="BY36" s="13"/>
       <c r="CG36" s="13"/>
     </row>
     <row r="37" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
       <c r="E37" s="51" t="s">
         <v>27</v>
       </c>
@@ -2802,10 +2816,10 @@
       <c r="CG37" s="13"/>
     </row>
     <row r="38" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
       <c r="E38" s="50" t="s">
         <v>28</v>
       </c>
@@ -2857,9 +2871,9 @@
       <c r="AY38" s="12"/>
       <c r="AZ38" s="12"/>
       <c r="BA38" s="13"/>
-      <c r="BB38" s="12"/>
-      <c r="BC38" s="12"/>
-      <c r="BD38" s="12"/>
+      <c r="BB38" s="23"/>
+      <c r="BC38" s="23"/>
+      <c r="BD38" s="23"/>
       <c r="BE38" s="12"/>
       <c r="BF38" s="12"/>
       <c r="BG38" s="12"/>
@@ -2891,12 +2905,12 @@
       <c r="CG38" s="13"/>
     </row>
     <row r="39" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="74"/>
-      <c r="B39" s="70" t="s">
+      <c r="A39" s="61"/>
+      <c r="B39" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
       <c r="E39" s="28"/>
       <c r="F39" s="29"/>
       <c r="G39" s="30"/>
@@ -2982,10 +2996,10 @@
       <c r="CG39" s="35"/>
     </row>
     <row r="40" spans="1:85" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="74"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
       <c r="E40" s="31"/>
       <c r="F40" s="32"/>
       <c r="G40" s="33"/>
@@ -3070,6 +3084,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="BJ1:BQ1"/>
+    <mergeCell ref="BR1:BY1"/>
+    <mergeCell ref="BZ1:CG1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AC1"/>
+    <mergeCell ref="AD1:AK1"/>
+    <mergeCell ref="AL1:AS1"/>
+    <mergeCell ref="AT1:BA1"/>
+    <mergeCell ref="BB1:BI1"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:D34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:D38"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="C7:D10"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:D40"/>
     <mergeCell ref="A39:A40"/>
@@ -3086,32 +3126,6 @@
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:D22"/>
-    <mergeCell ref="C7:D10"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:D26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:D34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:D38"/>
-    <mergeCell ref="BJ1:BQ1"/>
-    <mergeCell ref="BR1:BY1"/>
-    <mergeCell ref="BZ1:CG1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AC1"/>
-    <mergeCell ref="AD1:AK1"/>
-    <mergeCell ref="AL1:AS1"/>
-    <mergeCell ref="AT1:BA1"/>
-    <mergeCell ref="BB1:BI1"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
